--- a/Project/Project/docs e txt/resultados.xlsx
+++ b/Project/Project/docs e txt/resultados.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc59451_alunos_fc_ul_pt/Documents/MCD/2º Semestre/A.A.A/AAA_repo/Project/Project/docs e txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D074019A-9650-4A76-9A54-1A5411831B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{D074019A-9650-4A76-9A54-1A5411831B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EE8991-87BE-4309-A9F4-5274F4B35CB7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CC6C8A81-F9E4-4394-9C0E-1907BD7675F2}"/>
+    <workbookView minimized="1" xWindow="-16875" yWindow="510" windowWidth="12150" windowHeight="20745" activeTab="1" xr2:uid="{CC6C8A81-F9E4-4394-9C0E-1907BD7675F2}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Unbalanced" sheetId="1" r:id="rId1"/>
+    <sheet name="Balanced" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
   <si>
     <t>ACC</t>
   </si>
@@ -76,6 +77,9 @@
   <si>
     <t>Gender (Sorted by MCC)</t>
   </si>
+  <si>
+    <t>B</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +112,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -139,20 +149,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -251,7 +262,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$H$2</c:f>
+              <c:f>Unbalanced!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -272,7 +283,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$F$3:$G$12</c:f>
+              <c:f>Unbalanced!$F$3:$G$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -344,7 +355,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$12</c:f>
+              <c:f>Unbalanced!$H$3:$H$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -392,7 +403,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$I$2</c:f>
+              <c:f>Unbalanced!$I$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -413,7 +424,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$F$3:$G$12</c:f>
+              <c:f>Unbalanced!$F$3:$G$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -485,7 +496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$12</c:f>
+              <c:f>Unbalanced!$I$3:$I$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -805,7 +816,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$R$2</c:f>
+              <c:f>Unbalanced!$R$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -826,7 +837,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$P$3:$Q$12</c:f>
+              <c:f>Unbalanced!$P$3:$Q$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -898,7 +909,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$R$3:$R$12</c:f>
+              <c:f>Unbalanced!$R$3:$R$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -946,7 +957,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$S$2</c:f>
+              <c:f>Unbalanced!$S$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -967,7 +978,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Sheet1!$P$3:$Q$12</c:f>
+              <c:f>Unbalanced!$P$3:$Q$12</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="10"/>
                 <c:lvl>
@@ -1039,7 +1050,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$S$3:$S$12</c:f>
+              <c:f>Unbalanced!$S$3:$S$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2740,8 +2751,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{183104E3-5735-4ED1-970C-896521CAAF1F}">
   <dimension ref="E1:S12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2758,19 +2769,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E1" s="5"/>
-      <c r="F1" s="3" t="s">
+      <c r="E1" s="3"/>
+      <c r="F1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="P1" s="4" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="P1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="4"/>
-      <c r="R1" s="4"/>
-      <c r="S1" s="4"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
     </row>
     <row r="2" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
@@ -2799,28 +2810,28 @@
       </c>
     </row>
     <row r="3" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="4">
         <v>0.66</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="4">
         <v>0.51</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="6">
+      <c r="R3" s="4">
         <v>0.89</v>
       </c>
-      <c r="S3" s="6">
+      <c r="S3" s="4">
         <v>0.78</v>
       </c>
     </row>
@@ -2837,16 +2848,16 @@
       <c r="I4" s="2">
         <v>0.42</v>
       </c>
-      <c r="P4" s="6" t="s">
+      <c r="P4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="6" t="s">
+      <c r="Q4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="6">
+      <c r="R4" s="4">
         <v>0.89</v>
       </c>
-      <c r="S4" s="6">
+      <c r="S4" s="4">
         <v>0.78</v>
       </c>
     </row>
@@ -3070,4 +3081,290 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA731D09-1145-41F7-9FB7-9DE9A2C3F06B}">
+  <dimension ref="A1:T12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="Q1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="7">
+        <v>0.66</v>
+      </c>
+      <c r="J3" s="7">
+        <v>0.51</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="Q4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0.89</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0.52</v>
+      </c>
+      <c r="J5" s="7">
+        <v>0.41</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="Q6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="S6" s="2">
+        <v>0.88</v>
+      </c>
+      <c r="T6" s="2">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="Q7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.52</v>
+      </c>
+      <c r="J8" s="2">
+        <v>0.43</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.13</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0.84</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="Q10" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="T10" s="2">
+        <v>0.71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="Q11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="R11" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0.19</v>
+      </c>
+      <c r="J12" s="2">
+        <v>0.02</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="R12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="Q1:T1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Project/Project/docs e txt/resultados.xlsx
+++ b/Project/Project/docs e txt/resultados.xlsx
@@ -8,15 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ulisboa-my.sharepoint.com/personal/fc59451_alunos_fc_ul_pt/Documents/MCD/2º Semestre/A.A.A/AAA_repo/Project/Project/docs e txt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{D074019A-9650-4A76-9A54-1A5411831B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F9EE8991-87BE-4309-A9F4-5274F4B35CB7}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{D074019A-9650-4A76-9A54-1A5411831B3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D3B87518-77AA-4011-A924-0F53B2063968}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-16875" yWindow="510" windowWidth="12150" windowHeight="20745" activeTab="1" xr2:uid="{CC6C8A81-F9E4-4394-9C0E-1907BD7675F2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{CC6C8A81-F9E4-4394-9C0E-1907BD7675F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Unbalanced" sheetId="1" r:id="rId1"/>
     <sheet name="Balanced" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="34" r:id="rId7"/>
+    <pivotCache cacheId="69" r:id="rId8"/>
+    <pivotCache cacheId="88" r:id="rId9"/>
+    <pivotCache cacheId="107" r:id="rId10"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="17">
   <si>
     <t>ACC</t>
   </si>
@@ -78,14 +88,23 @@
     <t>Gender (Sorted by MCC)</t>
   </si>
   <si>
-    <t>B</t>
+    <t>Sum of ACC</t>
+  </si>
+  <si>
+    <t>Sum of MCC</t>
+  </si>
+  <si>
+    <t>Age (Sorted by ACC)</t>
+  </si>
+  <si>
+    <t>Gender (Sorted by ACC)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -101,6 +120,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -111,13 +137,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="7" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -149,21 +175,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1289,6 +1323,3288 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[resultados.xlsx]Sheet3!PivotTable73</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of MCC by Feature Extract Age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autoenconder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BASE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ORB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.91999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16999999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.43</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA12-48CE-A23C-7E522D55B680}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="196146944"/>
+        <c:axId val="196135904"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196146944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196135904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196135904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196146944"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[resultados.xlsx]Sheet4!PivotTable88</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of MCC by Feature Extract Gender</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet4!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet4!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autoenconder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BASE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ORB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet4!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.92999999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.53</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D305-471A-93D7-D570CDAD4C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2119987264"/>
+        <c:axId val="2119975744"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2119987264"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119975744"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119975744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119987264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Gender</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Balanced!$U$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Balanced!$S$4:$T$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Balanced!$U$4:$U$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.86</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-74A8-4618-8185-BF542CE88E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Balanced!$V$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Balanced!$S$4:$T$13</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Balanced!$V$4:$V$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.79</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.73</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.68</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.23</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-74A8-4618-8185-BF542CE88E98}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="113"/>
+        <c:overlap val="-100"/>
+        <c:axId val="2119991584"/>
+        <c:axId val="2119973344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2119991584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119973344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119973344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119991584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[resultados.xlsx]Sheet1!PivotTable29</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of ACC by Feature Extract for Gender</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autoenconder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BASE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ORB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.76</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.74</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6A74-4DA1-9C09-2EA7318FFAA0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2119988224"/>
+        <c:axId val="2119997824"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2119988224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119997824"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2119997824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2119988224"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Balanced!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ACC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Balanced!$C$5:$D$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Balanced!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.57999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.28000000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B848-474F-8B96-478A0FA3E298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Balanced!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MCC</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Balanced!$C$5:$D$14</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>BASE</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>HOG</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Autoenconder</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>ORB</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>VGG 16</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>SVM</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>CNN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Balanced!$F$5:$F$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.56000000000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.51</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.47</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.46</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.43</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.41</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B848-474F-8B96-478A0FA3E298}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="2045104896"/>
+        <c:axId val="2045101056"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2045104896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045101056"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2045101056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2045104896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[resultados.xlsx]Sheet2!PivotTable58</c:name>
+    <c:fmtId val="3"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sum of ACC by Feature Extract for Age</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$A$4:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Autoenconder</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>BASE</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HOG</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>ORB</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>VGG 16</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$4:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1499999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58000000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.77</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-86E9-4620-AF25-ACB5FDC97BDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="196155584"/>
+        <c:axId val="196156544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="196155584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196156544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="196156544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="196155584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1369,6 +4685,246 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -1873,6 +5429,3024 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2449,7 +9023,984 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FF356D6-1025-4CA9-8971-6A85A47DE850}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73443BE4-AD7B-4A89-AFE5-6B9F708965EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B724B4E-AAD4-3BF2-73BA-893E04D4217A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AD3AA6B-9FEA-4B49-966A-2201BFD9A0B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9C72CCC-ED7E-550A-DB76-3CEF51F07BFF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3E462D-21C3-4923-AEEE-74976CC0B2A8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Sobreira" refreshedDate="45056.543105787037" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{45B5C89B-2D3E-4485-9271-0B1CF022AF82}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="S3:V13" sheet="Balanced"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Feature Extract" numFmtId="0">
+      <sharedItems count="5">
+        <s v="HOG"/>
+        <s v="BASE"/>
+        <s v="VGG 16"/>
+        <s v="Autoenconder"/>
+        <s v="ORB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ACC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.62" maxValue="0.9"/>
+    </cacheField>
+    <cacheField name="MCC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.23" maxValue="0.8"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Sobreira" refreshedDate="45056.548032175924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{6A05A377-C5E8-42E7-991A-B7E4DF18932C}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="C4:F14" sheet="Balanced"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Feature Extract" numFmtId="0">
+      <sharedItems count="5">
+        <s v="HOG"/>
+        <s v="BASE"/>
+        <s v="VGG 16"/>
+        <s v="Autoenconder"/>
+        <s v="ORB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ACC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.19" maxValue="0.66"/>
+    </cacheField>
+    <cacheField name="MCC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.02" maxValue="0.56000000000000005"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Sobreira" refreshedDate="45056.556290624998" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{561BFE63-EE5C-4FE7-9B84-24A2DFA130D9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="F2:I12" sheet="Unbalanced"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Feature Extract" numFmtId="0">
+      <sharedItems count="5">
+        <s v="BASE"/>
+        <s v="VGG 16"/>
+        <s v="Autoenconder"/>
+        <s v="HOG"/>
+        <s v="ORB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ACC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.12" maxValue="0.7"/>
+    </cacheField>
+    <cacheField name="MCC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.01" maxValue="0.51"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Alexandre Sobreira" refreshedDate="45056.55646388889" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="10" xr:uid="{71D888C7-53B1-4302-9416-5866BCCBB9FC}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="P2:S12" sheet="Unbalanced"/>
+  </cacheSource>
+  <cacheFields count="4">
+    <cacheField name="Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Feature Extract" numFmtId="0">
+      <sharedItems count="5">
+        <s v="VGG 16"/>
+        <s v="BASE"/>
+        <s v="HOG"/>
+        <s v="Autoenconder"/>
+        <s v="ORB"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ACC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.22" maxValue="0.89"/>
+    </cacheField>
+    <cacheField name="MCC" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="0.32" maxValue="0.78"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="SVM"/>
+    <x v="0"/>
+    <n v="0.9"/>
+    <n v="0.8"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="1"/>
+    <n v="0.89"/>
+    <n v="0.79"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="2"/>
+    <n v="0.88"/>
+    <n v="0.76"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="3"/>
+    <n v="0.88"/>
+    <n v="0.76"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="2"/>
+    <n v="0.86"/>
+    <n v="0.73"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="1"/>
+    <n v="0.87"/>
+    <n v="0.73"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="0"/>
+    <n v="0.85"/>
+    <n v="0.71"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="3"/>
+    <n v="0.84"/>
+    <n v="0.68"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="4"/>
+    <n v="0.67"/>
+    <n v="0.35"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="4"/>
+    <n v="0.62"/>
+    <n v="0.23"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="SVM"/>
+    <x v="0"/>
+    <n v="0.63"/>
+    <n v="0.56000000000000005"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="1"/>
+    <n v="0.66"/>
+    <n v="0.51"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="2"/>
+    <n v="0.57999999999999996"/>
+    <n v="0.51"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="3"/>
+    <n v="0.56000000000000005"/>
+    <n v="0.47"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="1"/>
+    <n v="0.55000000000000004"/>
+    <n v="0.46"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="0"/>
+    <n v="0.52"/>
+    <n v="0.43"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="3"/>
+    <n v="0.52"/>
+    <n v="0.41"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="4"/>
+    <n v="0.3"/>
+    <n v="0.15"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="4"/>
+    <n v="0.28000000000000003"/>
+    <n v="0.13"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="2"/>
+    <n v="0.19"/>
+    <n v="0.02"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="CNN"/>
+    <x v="0"/>
+    <n v="0.66"/>
+    <n v="0.51"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="1"/>
+    <n v="0.54"/>
+    <n v="0.42"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="2"/>
+    <n v="0.59"/>
+    <n v="0.42"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="0"/>
+    <n v="0.7"/>
+    <n v="0.41"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="3"/>
+    <n v="0.52"/>
+    <n v="0.4"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="3"/>
+    <n v="0.56000000000000005"/>
+    <n v="0.39"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="4"/>
+    <n v="0.37"/>
+    <n v="0.09"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="4"/>
+    <n v="0.12"/>
+    <n v="0.08"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="2"/>
+    <n v="0.21"/>
+    <n v="0.02"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="1"/>
+    <n v="0.27"/>
+    <n v="0.01"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="10">
+  <r>
+    <s v="SVM"/>
+    <x v="0"/>
+    <n v="0.89"/>
+    <n v="0.78"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="1"/>
+    <n v="0.89"/>
+    <n v="0.78"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="2"/>
+    <n v="0.88"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="0"/>
+    <n v="0.87"/>
+    <n v="0.75"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="1"/>
+    <n v="0.87"/>
+    <n v="0.73"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="3"/>
+    <n v="0.86"/>
+    <n v="0.73"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="3"/>
+    <n v="0.84"/>
+    <n v="0.68"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="2"/>
+    <n v="0.82"/>
+    <n v="0.63"/>
+  </r>
+  <r>
+    <s v="CNN"/>
+    <x v="4"/>
+    <n v="0.22"/>
+    <n v="0.61"/>
+  </r>
+  <r>
+    <s v="SVM"/>
+    <x v="4"/>
+    <n v="0.66"/>
+    <n v="0.32"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B490D8A5-FABD-4AC4-9805-943D441E0D84}" name="PivotTable29" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of ACC" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{02A82778-2782-409A-94F3-B58882CDAE41}" name="PivotTable58" cacheId="69" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="0"/>
+        <item x="4"/>
+        <item x="2"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of ACC" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6F0EE0E4-B13C-4A5A-A902-C6AA969966A3}" name="PivotTable73" cacheId="88" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="1"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of MCC" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{593B9C1D-51FE-4635-881F-F6FC6E1AAD7C}" name="PivotTable88" cacheId="107" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" colGrandTotals="0" itemPrintTitles="1" createdVersion="8" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="4">
+  <location ref="A3:B8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="4">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="3"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="0"/>
+      </items>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{2946ED86-A175-432a-8AC1-64E0C546D7DE}">
+          <x14:pivotField fillDownLabels="1"/>
+        </ext>
+      </extLst>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of MCC" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" fillDownLabelsDefault="1" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2752,7 +10303,7 @@
   <dimension ref="E1:S12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:S12"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,25 +10314,25 @@
     <col min="4" max="4" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="E1" s="3"/>
-      <c r="F1" s="5" t="s">
+      <c r="E1" s="2"/>
+      <c r="F1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="P1" s="6" t="s">
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
     </row>
     <row r="2" spans="5:19" x14ac:dyDescent="0.25">
       <c r="F2" s="1" t="s">
@@ -2810,262 +10361,263 @@
       </c>
     </row>
     <row r="3" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="10">
         <v>0.66</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="10">
         <v>0.51</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="4" t="s">
+      <c r="Q3" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="R3" s="4">
+      <c r="R3" s="9">
         <v>0.89</v>
       </c>
-      <c r="S3" s="4">
+      <c r="S3" s="9">
         <v>0.78</v>
       </c>
     </row>
     <row r="4" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>0.54</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <v>0.42</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="R4" s="4">
+      <c r="R4" s="10">
         <v>0.89</v>
       </c>
-      <c r="S4" s="4">
+      <c r="S4" s="10">
         <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F5" s="2" t="s">
+      <c r="F5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="10">
         <v>0.59</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <v>0.42</v>
       </c>
-      <c r="P5" s="2" t="s">
+      <c r="J5" s="11"/>
+      <c r="P5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q5" s="2" t="s">
+      <c r="Q5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="9">
         <v>0.88</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="9">
         <v>0.75</v>
       </c>
     </row>
     <row r="6" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F6" s="2" t="s">
+      <c r="F6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>0.7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <v>0.41</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="P6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="R6" s="2">
+      <c r="R6" s="10">
         <v>0.87</v>
       </c>
-      <c r="S6" s="2">
+      <c r="S6" s="10">
         <v>0.75</v>
       </c>
     </row>
     <row r="7" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <v>0.52</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <v>0.4</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="P7" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="R7" s="2">
+      <c r="R7" s="9">
         <v>0.87</v>
       </c>
-      <c r="S7" s="2">
+      <c r="S7" s="9">
         <v>0.73</v>
       </c>
     </row>
     <row r="8" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="10">
         <v>0.56000000000000005</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="10">
         <v>0.39</v>
       </c>
-      <c r="P8" s="2" t="s">
+      <c r="P8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q8" s="2" t="s">
+      <c r="Q8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="R8" s="2">
+      <c r="R8" s="9">
         <v>0.86</v>
       </c>
-      <c r="S8" s="2">
+      <c r="S8" s="9">
         <v>0.73</v>
       </c>
     </row>
     <row r="9" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="10">
         <v>0.37</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="10">
         <v>0.09</v>
       </c>
-      <c r="P9" s="2" t="s">
+      <c r="P9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="R9" s="2">
+      <c r="R9" s="10">
         <v>0.84</v>
       </c>
-      <c r="S9" s="2">
+      <c r="S9" s="10">
         <v>0.68</v>
       </c>
     </row>
     <row r="10" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="9">
         <v>0.12</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <v>0.08</v>
       </c>
-      <c r="P10" s="2" t="s">
+      <c r="P10" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q10" s="2" t="s">
+      <c r="Q10" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R10" s="2">
+      <c r="R10" s="10">
         <v>0.82</v>
       </c>
-      <c r="S10" s="2">
+      <c r="S10" s="10">
         <v>0.63</v>
       </c>
     </row>
     <row r="11" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="9">
         <v>0.21</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
         <v>0.02</v>
       </c>
-      <c r="P11" s="2" t="s">
+      <c r="P11" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="R11" s="2">
+      <c r="R11" s="10">
         <v>0.22</v>
       </c>
-      <c r="S11" s="2">
+      <c r="S11" s="10">
         <v>0.61</v>
       </c>
     </row>
     <row r="12" spans="5:19" x14ac:dyDescent="0.25">
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="10">
         <v>0.27</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="10">
         <v>0.01</v>
       </c>
-      <c r="P12" s="2" t="s">
+      <c r="P12" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="Q12" s="2" t="s">
+      <c r="Q12" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="R12" s="2">
+      <c r="R12" s="9">
         <v>0.66</v>
       </c>
-      <c r="S12" s="2">
+      <c r="S12" s="9">
         <v>0.32</v>
       </c>
     </row>
@@ -3085,286 +10637,600 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA731D09-1145-41F7-9FB7-9DE9A2C3F06B}">
-  <dimension ref="A1:T12"/>
+  <dimension ref="C2:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="N32" sqref="N32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="Q1" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-      <c r="T1" s="6"/>
+    <row r="2" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="S2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="T2" s="3"/>
+      <c r="U2" s="3"/>
+      <c r="V2" s="3"/>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G2" s="1" t="s">
+    <row r="3" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="S3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="T3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="U3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="V3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="1" t="s">
+    </row>
+    <row r="4" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="S4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="U4" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="V4" s="6">
+        <v>0.8</v>
+      </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G3" s="7" t="s">
+    <row r="5" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.63</v>
+      </c>
+      <c r="F5" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="S5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="T5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="7">
-        <v>0.66</v>
-      </c>
-      <c r="J3" s="7">
+      <c r="U5" s="5">
+        <v>0.89</v>
+      </c>
+      <c r="V5" s="5">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.6</v>
+      </c>
+      <c r="F6" s="5">
         <v>0.51</v>
       </c>
-      <c r="Q3" s="7" t="s">
+      <c r="S6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="U6" s="5">
+        <v>0.88</v>
+      </c>
+      <c r="V6" s="5">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="7" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S3" s="7"/>
-      <c r="T3" s="7"/>
+      <c r="E7" s="6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F7" s="6">
+        <v>0.51</v>
+      </c>
+      <c r="S7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="U7" s="6">
+        <v>0.88</v>
+      </c>
+      <c r="V7" s="6">
+        <v>0.76</v>
+      </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G4" s="7" t="s">
+    <row r="8" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="D8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="6">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="F8" s="6">
+        <v>0.47</v>
+      </c>
+      <c r="S8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="6">
+        <v>0.87</v>
+      </c>
+      <c r="V8" s="6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="9" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F9" s="6">
+        <v>0.46</v>
+      </c>
+      <c r="S9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="Q4" s="7" t="s">
+      <c r="U9" s="6">
+        <v>0.86</v>
+      </c>
+      <c r="V9" s="6">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="10" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R4" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="S4" s="7">
-        <v>0.89</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0.79</v>
+      <c r="D10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="5">
+        <v>0.52</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.43</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="U10" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="V10" s="5">
+        <v>0.71</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G5" s="7" t="s">
+    <row r="11" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C11" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="7">
+      <c r="E11" s="5">
         <v>0.52</v>
       </c>
-      <c r="J5" s="7">
+      <c r="F11" s="5">
         <v>0.41</v>
       </c>
-      <c r="Q5" s="7" t="s">
+      <c r="S11" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T11" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="5">
+        <v>0.84</v>
+      </c>
+      <c r="V11" s="5">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="12" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="R5" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="T5" s="7"/>
+      <c r="D12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F12" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="S12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="T12" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="V12" s="6">
+        <v>0.35</v>
+      </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="Q6" s="2" t="s">
+    <row r="13" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.13</v>
+      </c>
+      <c r="S13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="T13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0.62</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C14" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="S6" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="T6" s="2">
-        <v>0.76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="Q7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2"/>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="2">
-        <v>0.52</v>
-      </c>
-      <c r="J8" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S8" s="2"/>
-      <c r="T8" s="2"/>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I9" s="2">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="J9" s="2">
-        <v>0.13</v>
-      </c>
-      <c r="Q9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="S9" s="2">
-        <v>0.84</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G10" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="Q10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0.85</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0.71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="Q11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="R11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0.62</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="2">
+      <c r="E14" s="5">
         <v>0.19</v>
       </c>
-      <c r="J12" s="2">
+      <c r="F14" s="5">
         <v>0.02</v>
       </c>
-      <c r="Q12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="R12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" s="2"/>
-      <c r="T12" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="C5:F14">
+    <sortCondition descending="1" ref="E5:E14"/>
+  </sortState>
   <mergeCells count="2">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="Q1:T1"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="S2:V2"/>
   </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDE891B-283F-48DD-AF73-2E88D059A82F}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4A75F73-B77A-47E1-BACD-B2EF90394925}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.08</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.58000000000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.77</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FF8F0B9-88DC-45EB-897E-A306FBB5CC05}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>0.91999999999999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.16999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.43</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E48277DE-7CC1-4889-8162-3961613F7E91}">
+  <dimension ref="A3:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="8">
+        <v>1.4100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="8">
+        <v>0.92999999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="8">
+        <v>1.53</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>